--- a/Data/Model parameters.xlsx
+++ b/Data/Model parameters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="313">
   <si>
     <t>Tx_eff</t>
   </si>
@@ -1237,8 +1237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:M1456" totalsRowShown="0" headerRowCellStyle="Accent6">
-  <autoFilter ref="A1:M1456"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:M1448" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="A1:M1448"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Label"/>
     <tableColumn id="2" name="Population"/>
@@ -1552,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1456"/>
+  <dimension ref="A1:M1448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H309" sqref="H309"/>
+      <selection pane="bottomRight" activeCell="J339" sqref="J339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13352,104 +13352,102 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B306" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D306" t="s">
         <v>13</v>
       </c>
-      <c r="E306" s="23" t="s">
+      <c r="E306" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F306" s="11">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="G306" s="11">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="H306" s="11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I306" t="s">
         <v>9</v>
       </c>
-      <c r="J306" s="23" t="s">
+      <c r="J306" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K306" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L306" s="23" t="str">
+      <c r="K306" t="s">
+        <v>290</v>
+      </c>
+      <c r="L306" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
-      <c r="M306" s="5" t="s">
-        <v>255</v>
+      <c r="M306" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B307" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D307" t="s">
         <v>15</v>
       </c>
-      <c r="E307" s="23" t="s">
-        <v>28</v>
+      <c r="E307" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="F307" s="11">
-        <v>1</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="G307" s="11">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="H307" s="11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I307" t="s">
         <v>9</v>
       </c>
-      <c r="J307" s="23" t="s">
+      <c r="J307" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K307" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L307" s="23" t="str">
+      <c r="K307" t="s">
+        <v>290</v>
+      </c>
+      <c r="L307" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
-      <c r="M307" s="5" t="s">
-        <v>255</v>
+      <c r="M307" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B308" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D308" t="s">
         <v>0</v>
       </c>
-      <c r="E308" s="23"/>
+      <c r="E308" s="11"/>
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
       <c r="H308" s="11"/>
@@ -13462,19 +13460,19 @@
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
-      <c r="M308" s="5" t="s">
-        <v>255</v>
+      <c r="M308" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B309" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C309" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D309" t="s">
         <v>14</v>
@@ -13483,13 +13481,13 @@
         <v>2</v>
       </c>
       <c r="F309" s="11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G309" s="11">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="H309" s="11">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="I309" t="s">
         <v>9</v>
@@ -13505,19 +13503,19 @@
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
-      <c r="M309" s="5" t="s">
-        <v>255</v>
+      <c r="M309" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B310" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D310" t="s">
         <v>16</v>
@@ -13526,13 +13524,13 @@
         <v>2</v>
       </c>
       <c r="F310" s="11">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G310" s="11">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="H310" s="11">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="I310" t="s">
         <v>9</v>
@@ -13548,97 +13546,108 @@
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
-      <c r="M310" s="5" t="s">
-        <v>255</v>
+      <c r="M310" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B311" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D311" t="s">
         <v>1</v>
       </c>
-      <c r="E311" s="23" t="s">
-        <v>1</v>
+      <c r="E311" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F311" s="11">
-        <v>35</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="G311" s="11">
-        <v>20</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="H311" s="11">
-        <v>45</v>
+        <v>72.739999999999995</v>
       </c>
       <c r="I311" t="s">
-        <v>9</v>
-      </c>
-      <c r="J311" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="K311" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L311" s="23" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M311" s="5" t="s">
-        <v>255</v>
+        <v>23</v>
+      </c>
+      <c r="J311" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="K311" t="s">
+        <v>297</v>
+      </c>
+      <c r="L311" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="M311" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B312" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D312" t="s">
         <v>17</v>
       </c>
-      <c r="E312" s="23"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
-        <v/>
+      <c r="E312" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="11">
+        <v>93</v>
+      </c>
+      <c r="G312" s="11">
+        <v>40</v>
+      </c>
+      <c r="H312" s="11">
+        <v>151</v>
+      </c>
+      <c r="I312" t="s">
+        <v>9</v>
+      </c>
+      <c r="J312" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="K312" t="s">
+        <v>297</v>
       </c>
       <c r="L312" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-      <c r="M312" s="5" t="s">
-        <v>255</v>
+        <v>IIb</v>
+      </c>
+      <c r="M312" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B313" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
       </c>
-      <c r="E313" s="23"/>
+      <c r="E313" s="11"/>
       <c r="F313" s="11"/>
       <c r="G313" s="11"/>
       <c r="H313" s="11"/>
@@ -13651,45 +13660,46 @@
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
-      <c r="M313" s="5" t="s">
-        <v>255</v>
+      <c r="M313" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C314" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D314" t="s">
         <v>13</v>
       </c>
-      <c r="E314" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F314" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="G314" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H314" s="11">
-        <v>0.8</v>
+      <c r="E314" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F314" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G314" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H314" s="8">
+        <v>0.7</v>
       </c>
       <c r="I314" t="s">
         <v>9</v>
       </c>
-      <c r="J314" s="11" t="s">
+      <c r="J314" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K314" t="s">
-        <v>290</v>
-      </c>
-      <c r="L314" s="11" t="str">
+      <c r="K314" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>Expert opinion</v>
+      </c>
+      <c r="L314" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
@@ -13699,41 +13709,42 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B315" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C315" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D315" t="s">
         <v>15</v>
       </c>
-      <c r="E315" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F315" s="11">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="G315" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H315" s="11">
-        <v>0.8</v>
+      <c r="E315" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" s="8">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G315" s="8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H315" s="8">
+        <v>0.93899999999999995</v>
       </c>
       <c r="I315" t="s">
         <v>9</v>
       </c>
-      <c r="J315" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="K315" t="s">
-        <v>290</v>
-      </c>
-      <c r="L315" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+      <c r="J315" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K315" s="8" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="IKNL","National registry",)</f>
+        <v>National registry</v>
+      </c>
+      <c r="L315" s="8" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
       </c>
       <c r="M315" s="7" t="s">
         <v>192</v>
@@ -13741,27 +13752,27 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B316" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D316" t="s">
         <v>0</v>
       </c>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-      <c r="J316" s="11"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="8"/>
+      <c r="H316" s="8"/>
+      <c r="J316" s="8"/>
       <c r="K316" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
         <v/>
       </c>
-      <c r="L316" s="11" t="str">
+      <c r="L316" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
@@ -13771,13 +13782,13 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B317" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D317" t="s">
         <v>14</v>
@@ -13786,25 +13797,25 @@
         <v>2</v>
       </c>
       <c r="F317" s="11">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G317" s="11">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="H317" s="11">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I317" t="s">
         <v>9</v>
       </c>
-      <c r="J317" s="11" t="s">
+      <c r="J317" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K317" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
         <v>Expert panel</v>
       </c>
-      <c r="L317" s="11" t="str">
+      <c r="L317" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
@@ -13814,40 +13825,40 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B318" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D318" t="s">
         <v>16</v>
       </c>
-      <c r="E318" s="11" t="s">
+      <c r="E318" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F318" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="G318" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="H318" s="11">
-        <v>0.82</v>
+      <c r="F318" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="G318" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="H318" s="8">
+        <v>0.99</v>
       </c>
       <c r="I318" t="s">
         <v>9</v>
       </c>
-      <c r="J318" s="11" t="s">
+      <c r="J318" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K318" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
         <v>Expert panel</v>
       </c>
-      <c r="L318" s="11" t="str">
+      <c r="L318" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
@@ -13857,111 +13868,111 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D319" t="s">
         <v>1</v>
       </c>
-      <c r="E319" s="11" t="s">
+      <c r="E319" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F319" s="11">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="G319" s="11">
-        <v>65.459999999999994</v>
-      </c>
-      <c r="H319" s="11">
-        <v>72.739999999999995</v>
+      <c r="F319" s="8">
+        <v>55</v>
+      </c>
+      <c r="G319" s="8">
+        <v>47</v>
+      </c>
+      <c r="H319" s="8">
+        <v>62</v>
       </c>
       <c r="I319" t="s">
-        <v>23</v>
-      </c>
-      <c r="J319" s="11" t="s">
-        <v>291</v>
+        <v>9</v>
+      </c>
+      <c r="J319" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="K319" t="s">
-        <v>297</v>
-      </c>
-      <c r="L319" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M319" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L319" s="8" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="M319" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D320" t="s">
         <v>17</v>
       </c>
-      <c r="E320" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F320" s="11">
-        <v>93</v>
-      </c>
-      <c r="G320" s="11">
-        <v>40</v>
-      </c>
-      <c r="H320" s="11">
-        <v>151</v>
+      <c r="E320" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320" s="8">
+        <v>273</v>
+      </c>
+      <c r="G320" s="8">
+        <v>180</v>
+      </c>
+      <c r="H320" s="8">
+        <v>365</v>
       </c>
       <c r="I320" t="s">
         <v>9</v>
       </c>
-      <c r="J320" s="11" t="s">
-        <v>292</v>
+      <c r="J320" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="K320" t="s">
-        <v>297</v>
-      </c>
-      <c r="L320" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M320" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L320" s="8" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="M320" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B321" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D321" t="s">
         <v>18</v>
       </c>
-      <c r="E321" s="11"/>
-      <c r="F321" s="11"/>
-      <c r="G321" s="11"/>
-      <c r="H321" s="11"/>
-      <c r="J321" s="11"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+      <c r="H321" s="8"/>
+      <c r="J321" s="8"/>
       <c r="K321" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
         <v/>
       </c>
-      <c r="L321" s="11" t="str">
+      <c r="L321" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
@@ -13971,13 +13982,13 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D322" t="s">
         <v>13</v>
@@ -13986,13 +13997,13 @@
         <v>101</v>
       </c>
       <c r="F322" s="8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G322" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H322" s="8">
         <v>0.3</v>
-      </c>
-      <c r="H322" s="8">
-        <v>0.7</v>
       </c>
       <c r="I322" t="s">
         <v>9</v>
@@ -14014,13 +14025,13 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D323" t="s">
         <v>15</v>
@@ -14029,13 +14040,13 @@
         <v>12</v>
       </c>
       <c r="F323" s="8">
-        <v>0.93400000000000005</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G323" s="8">
-        <v>0.92900000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="H323" s="8">
-        <v>0.93899999999999995</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="I323" t="s">
         <v>9</v>
@@ -14057,13 +14068,13 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D324" t="s">
         <v>0</v>
@@ -14087,13 +14098,13 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D325" t="s">
         <v>14</v>
@@ -14102,13 +14113,13 @@
         <v>2</v>
       </c>
       <c r="F325" s="11">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="G325" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H325" s="11">
         <v>0.81</v>
-      </c>
-      <c r="H325" s="11">
-        <v>0.88</v>
       </c>
       <c r="I325" t="s">
         <v>9</v>
@@ -14130,13 +14141,13 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D326" t="s">
         <v>16</v>
@@ -14145,13 +14156,13 @@
         <v>2</v>
       </c>
       <c r="F326" s="8">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="G326" s="8">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H326" s="8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I326" t="s">
         <v>9</v>
@@ -14173,13 +14184,13 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D327" t="s">
         <v>1</v>
@@ -14188,26 +14199,26 @@
         <v>11</v>
       </c>
       <c r="F327" s="8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G327" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H327" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I327" t="s">
         <v>9</v>
       </c>
       <c r="J327" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K327" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L327" s="8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>IIa</v>
       </c>
       <c r="M327" s="7" t="s">
         <v>192</v>
@@ -14215,13 +14226,13 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D328" t="s">
         <v>17</v>
@@ -14257,27 +14268,23 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D329" t="s">
         <v>18</v>
       </c>
-      <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
-      <c r="G329" s="8"/>
-      <c r="H329" s="8"/>
-      <c r="J329" s="8"/>
+      <c r="E329" s="23"/>
       <c r="K329" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
         <v/>
       </c>
-      <c r="L329" s="8" t="str">
+      <c r="L329" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
@@ -14287,40 +14294,40 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B330" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C330" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B330" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D330" t="s">
         <v>13</v>
       </c>
-      <c r="E330" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F330" s="8">
+      <c r="E330" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="11">
         <v>0.1</v>
       </c>
-      <c r="G330" s="8">
+      <c r="G330" s="11">
         <v>0.05</v>
       </c>
-      <c r="H330" s="8">
+      <c r="H330" s="11">
         <v>0.3</v>
       </c>
       <c r="I330" t="s">
         <v>9</v>
       </c>
-      <c r="J330" s="8" t="s">
+      <c r="J330" s="11" t="s">
         <v>273</v>
       </c>
       <c r="K330" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
         <v>Expert opinion</v>
       </c>
-      <c r="L330" s="8" t="str">
+      <c r="L330" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
@@ -14330,40 +14337,40 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B331" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C331" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D331" t="s">
         <v>15</v>
       </c>
-      <c r="E331" s="8" t="s">
+      <c r="E331" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F331" s="8">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="G331" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="H331" s="8">
-        <v>0.79600000000000004</v>
+      <c r="F331" s="11">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G331" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H331" s="11">
+        <v>0.83699999999999997</v>
       </c>
       <c r="I331" t="s">
         <v>9</v>
       </c>
-      <c r="J331" s="8" t="s">
+      <c r="J331" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K331" s="8" t="str">
+      <c r="K331" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="IKNL","National registry",)</f>
         <v>National registry</v>
       </c>
-      <c r="L331" s="8" t="str">
+      <c r="L331" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
@@ -14373,27 +14380,27 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B332" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C332" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D332" t="s">
         <v>0</v>
       </c>
-      <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
-      <c r="G332" s="8"/>
-      <c r="H332" s="8"/>
-      <c r="J332" s="8"/>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="J332" s="11"/>
       <c r="K332" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
         <v/>
       </c>
-      <c r="L332" s="8" t="str">
+      <c r="L332" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
@@ -14403,13 +14410,13 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B333" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C333" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D333" t="s">
         <v>14</v>
@@ -14418,25 +14425,25 @@
         <v>2</v>
       </c>
       <c r="F333" s="11">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="G333" s="11">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="H333" s="11">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
       <c r="I333" t="s">
         <v>9</v>
       </c>
-      <c r="J333" s="8" t="s">
+      <c r="J333" s="11" t="s">
         <v>118</v>
       </c>
       <c r="K333" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
         <v>Expert panel</v>
       </c>
-      <c r="L333" s="8" t="str">
+      <c r="L333" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
@@ -14446,40 +14453,40 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B334" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C334" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D334" t="s">
         <v>16</v>
       </c>
-      <c r="E334" s="8" t="s">
+      <c r="E334" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F334" s="8">
-        <v>0.93</v>
-      </c>
-      <c r="G334" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="H334" s="8">
-        <v>0.95</v>
+      <c r="F334" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G334" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="H334" s="11">
+        <v>0.65</v>
       </c>
       <c r="I334" t="s">
         <v>9</v>
       </c>
-      <c r="J334" s="8" t="s">
+      <c r="J334" s="11" t="s">
         <v>118</v>
       </c>
       <c r="K334" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
         <v>Expert panel</v>
       </c>
-      <c r="L334" s="8" t="str">
+      <c r="L334" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
@@ -14489,41 +14496,42 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B335" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C335" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D335" t="s">
         <v>1</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="E335" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F335" s="8">
-        <v>62</v>
-      </c>
-      <c r="G335" s="8">
-        <v>58</v>
-      </c>
-      <c r="H335" s="8">
-        <v>66</v>
+      <c r="F335" s="11">
+        <v>65</v>
+      </c>
+      <c r="G335" s="11">
+        <v>60</v>
+      </c>
+      <c r="H335" s="11">
+        <v>70</v>
       </c>
       <c r="I335" t="s">
         <v>9</v>
       </c>
-      <c r="J335" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K335" t="s">
-        <v>298</v>
-      </c>
-      <c r="L335" s="8" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
+      <c r="J335" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K335" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>Expert opinion</v>
+      </c>
+      <c r="L335" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>III</v>
       </c>
       <c r="M335" s="7" t="s">
         <v>192</v>
@@ -14531,41 +14539,42 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B336" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C336" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D336" t="s">
         <v>17</v>
       </c>
-      <c r="E336" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F336" s="8">
-        <v>273</v>
-      </c>
-      <c r="G336" s="8">
-        <v>180</v>
-      </c>
-      <c r="H336" s="8">
-        <v>365</v>
+      <c r="E336" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F336" s="11">
+        <v>3</v>
+      </c>
+      <c r="G336" s="11">
+        <v>1</v>
+      </c>
+      <c r="H336" s="11">
+        <v>5</v>
       </c>
       <c r="I336" t="s">
         <v>9</v>
       </c>
-      <c r="J336" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K336" t="s">
-        <v>295</v>
-      </c>
-      <c r="L336" s="8" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+      <c r="J336" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K336" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>Expert opinion</v>
+      </c>
+      <c r="L336" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>III</v>
       </c>
       <c r="M336" s="7" t="s">
         <v>192</v>
@@ -14573,25 +14582,42 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B337" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C337" s="20" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D337" t="s">
         <v>18</v>
       </c>
-      <c r="E337" s="23"/>
+      <c r="E337" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F337" s="11">
+        <v>6</v>
+      </c>
+      <c r="G337" s="11">
+        <v>3</v>
+      </c>
+      <c r="H337" s="11">
+        <v>9</v>
+      </c>
+      <c r="I337" t="s">
+        <v>9</v>
+      </c>
+      <c r="J337" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="K337" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
-        <v/>
-      </c>
-      <c r="L337" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>Expert opinion</v>
+      </c>
+      <c r="L337" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>III</v>
       </c>
       <c r="M337" s="7" t="s">
         <v>192</v>
@@ -14599,746 +14625,471 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B338" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C338" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D338" t="s">
         <v>13</v>
       </c>
-      <c r="E338" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F338" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G338" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="H338" s="11">
-        <v>0.3</v>
+      <c r="E338" t="s">
+        <v>29</v>
       </c>
       <c r="I338" t="s">
-        <v>9</v>
-      </c>
-      <c r="J338" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="K338" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L338" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M338" s="7" t="s">
-        <v>192</v>
+        <v>30</v>
+      </c>
+      <c r="J338" t="str">
+        <f>IF(I338="Calc_from_tx_eff","Calculated from tx effect", "")</f>
+        <v>Calculated from tx effect</v>
+      </c>
+      <c r="K338" t="s">
+        <v>298</v>
+      </c>
+      <c r="L338" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIa</v>
+      </c>
+      <c r="M338" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B339" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C339" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D339" t="s">
         <v>15</v>
       </c>
-      <c r="E339" s="11" t="s">
+      <c r="E339" t="s">
         <v>12</v>
       </c>
-      <c r="F339" s="11">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="G339" s="11">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="H339" s="11">
-        <v>0.83699999999999997</v>
+      <c r="F339">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="G339">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H339">
+        <v>0.70799999999999996</v>
       </c>
       <c r="I339" t="s">
         <v>9</v>
       </c>
-      <c r="J339" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K339" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="IKNL","National registry",)</f>
-        <v>National registry</v>
-      </c>
-      <c r="L339" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M339" s="7" t="s">
-        <v>192</v>
+      <c r="J339" t="s">
+        <v>312</v>
+      </c>
+      <c r="K339" t="s">
+        <v>298</v>
+      </c>
+      <c r="L339" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIa</v>
+      </c>
+      <c r="M339" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B340" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D340" t="s">
         <v>0</v>
       </c>
-      <c r="E340" s="11"/>
-      <c r="F340" s="11"/>
-      <c r="G340" s="11"/>
-      <c r="H340" s="11"/>
-      <c r="J340" s="11"/>
-      <c r="K340" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
-        <v/>
-      </c>
-      <c r="L340" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-      <c r="M340" s="7" t="s">
-        <v>192</v>
+      <c r="E340" t="s">
+        <v>37</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>0.08</v>
+      </c>
+      <c r="H340">
+        <v>1.02</v>
+      </c>
+      <c r="I340" t="s">
+        <v>23</v>
+      </c>
+      <c r="J340" t="s">
+        <v>273</v>
+      </c>
+      <c r="K340" t="s">
+        <v>290</v>
+      </c>
+      <c r="L340" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>III</v>
+      </c>
+      <c r="M340" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B341" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D341" t="s">
         <v>14</v>
       </c>
-      <c r="E341" s="11" t="s">
+      <c r="E341" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F341" s="11">
-        <v>0.41</v>
-      </c>
-      <c r="G341" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="H341" s="11">
+      <c r="F341" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="G341" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="H341" s="8">
         <v>0.47</v>
       </c>
       <c r="I341" t="s">
         <v>9</v>
       </c>
-      <c r="J341" s="11" t="s">
+      <c r="J341" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K341" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
-        <v>Expert panel</v>
-      </c>
-      <c r="L341" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M341" s="7" t="s">
-        <v>192</v>
+      <c r="K341" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="L341" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="M341" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B342" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D342" t="s">
         <v>16</v>
       </c>
-      <c r="E342" s="11" t="s">
+      <c r="E342" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F342" s="11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G342" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="H342" s="11">
-        <v>0.65</v>
+      <c r="F342" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="G342" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="H342" s="8">
+        <v>0.79</v>
       </c>
       <c r="I342" t="s">
         <v>9</v>
       </c>
-      <c r="J342" s="11" t="s">
+      <c r="J342" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K342" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
-        <v>Expert panel</v>
-      </c>
-      <c r="L342" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M342" s="7" t="s">
-        <v>192</v>
+      <c r="K342" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="L342" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="M342" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B343" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C343" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D343" t="s">
         <v>1</v>
       </c>
-      <c r="E343" s="11" t="s">
+      <c r="E343" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F343" s="11">
+      <c r="F343" s="8">
         <v>65</v>
       </c>
-      <c r="G343" s="11">
-        <v>60</v>
-      </c>
-      <c r="H343" s="11">
-        <v>70</v>
+      <c r="G343" s="8">
+        <v>50</v>
+      </c>
+      <c r="H343" s="8">
+        <v>90</v>
       </c>
       <c r="I343" t="s">
         <v>9</v>
       </c>
-      <c r="J343" s="11" t="s">
+      <c r="J343" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K343" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L343" s="11" t="str">
+      <c r="K343" t="s">
+        <v>290</v>
+      </c>
+      <c r="L343" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
-      <c r="M343" s="7" t="s">
-        <v>192</v>
+      <c r="M343" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B344" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C344" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
       </c>
-      <c r="E344" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F344" s="11">
-        <v>3</v>
-      </c>
-      <c r="G344" s="11">
-        <v>1</v>
-      </c>
-      <c r="H344" s="11">
-        <v>5</v>
-      </c>
-      <c r="I344" t="s">
-        <v>9</v>
-      </c>
-      <c r="J344" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="K344" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L344" s="11" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M344" s="7" t="s">
-        <v>192</v>
+      <c r="E344" s="8"/>
+      <c r="F344" s="8"/>
+      <c r="G344" s="8"/>
+      <c r="H344" s="8"/>
+      <c r="I344" s="8"/>
+      <c r="L344" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v/>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B345" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C345" s="11" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D345" t="s">
         <v>18</v>
       </c>
-      <c r="E345" s="11" t="s">
+      <c r="E345" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F345" s="11">
-        <v>6</v>
-      </c>
-      <c r="G345" s="11">
+      <c r="F345" s="8">
         <v>3</v>
       </c>
-      <c r="H345" s="11">
+      <c r="G345" s="8">
+        <v>2</v>
+      </c>
+      <c r="H345" s="8">
+        <v>4</v>
+      </c>
+      <c r="I345" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I345" t="s">
-        <v>9</v>
-      </c>
-      <c r="J345" s="11" t="s">
+      <c r="J345" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K345" t="str">
-        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
-        <v>Expert opinion</v>
-      </c>
-      <c r="L345" s="11" t="str">
+      <c r="K345" t="s">
+        <v>290</v>
+      </c>
+      <c r="L345" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
-      <c r="M345" s="7" t="s">
-        <v>192</v>
+      <c r="M345" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D346" t="s">
-        <v>13</v>
-      </c>
-      <c r="E346" t="s">
-        <v>29</v>
-      </c>
-      <c r="I346" t="s">
-        <v>30</v>
-      </c>
-      <c r="J346" t="str">
-        <f>IF(I346="Calc_from_tx_eff","Calculated from tx effect", "")</f>
-        <v>Calculated from tx effect</v>
-      </c>
-      <c r="K346" t="s">
-        <v>298</v>
-      </c>
+      <c r="E346" s="23"/>
       <c r="L346" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
-      </c>
-      <c r="M346" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A347" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D347" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" t="s">
-        <v>12</v>
-      </c>
-      <c r="F347">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="G347">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="H347">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="I347" t="s">
-        <v>9</v>
-      </c>
-      <c r="J347" t="s">
-        <v>312</v>
-      </c>
-      <c r="K347" t="s">
-        <v>298</v>
-      </c>
+      <c r="E347" s="23"/>
       <c r="L347" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
-      </c>
-      <c r="M347" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A348" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D348" t="s">
-        <v>0</v>
-      </c>
-      <c r="E348" t="s">
-        <v>37</v>
-      </c>
-      <c r="F348">
-        <v>1</v>
-      </c>
-      <c r="G348">
-        <v>0.08</v>
-      </c>
-      <c r="H348">
-        <v>1.02</v>
-      </c>
-      <c r="I348" t="s">
-        <v>23</v>
-      </c>
-      <c r="J348" t="s">
-        <v>273</v>
-      </c>
-      <c r="K348" t="s">
-        <v>290</v>
-      </c>
+      <c r="E348" s="23"/>
       <c r="L348" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M348" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D349" t="s">
-        <v>14</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F349" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="G349" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="H349" s="8">
-        <v>0.47</v>
-      </c>
-      <c r="I349" t="s">
-        <v>9</v>
-      </c>
-      <c r="J349" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K349" s="25" t="s">
-        <v>305</v>
-      </c>
+      <c r="E349" s="23"/>
       <c r="L349" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M349" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A350" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B350" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D350" t="s">
-        <v>16</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F350" s="8">
-        <v>0.72</v>
-      </c>
-      <c r="G350" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="H350" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="I350" t="s">
-        <v>9</v>
-      </c>
-      <c r="J350" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K350" s="25" t="s">
-        <v>305</v>
-      </c>
+      <c r="E350" s="23"/>
       <c r="L350" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
-      </c>
-      <c r="M350" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A351" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B351" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1</v>
-      </c>
-      <c r="E351" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F351" s="8">
-        <v>65</v>
-      </c>
-      <c r="G351" s="8">
-        <v>50</v>
-      </c>
-      <c r="H351" s="8">
-        <v>90</v>
-      </c>
-      <c r="I351" t="s">
-        <v>9</v>
-      </c>
-      <c r="J351" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K351" t="s">
-        <v>290</v>
-      </c>
+      <c r="E351" s="23"/>
       <c r="L351" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M351" s="5" t="s">
-        <v>195</v>
+        <v/>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D352" t="s">
-        <v>17</v>
-      </c>
-      <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
-      <c r="G352" s="8"/>
-      <c r="H352" s="8"/>
-      <c r="I352" s="8"/>
+      <c r="E352" s="23"/>
       <c r="L352" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
-      <c r="M352" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A353" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D353" t="s">
-        <v>18</v>
-      </c>
-      <c r="E353" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F353" s="8">
-        <v>3</v>
-      </c>
-      <c r="G353" s="8">
-        <v>2</v>
-      </c>
-      <c r="H353" s="8">
-        <v>4</v>
-      </c>
-      <c r="I353" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J353" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K353" t="s">
-        <v>290</v>
-      </c>
+    </row>
+    <row r="353" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E353" s="23"/>
       <c r="L353" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
-      </c>
-      <c r="M353" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E354" s="23"/>
       <c r="L354" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E355" s="23"/>
       <c r="L355" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E356" s="23"/>
       <c r="L356" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E357" s="23"/>
       <c r="L357" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E358" s="23"/>
       <c r="L358" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E359" s="23"/>
       <c r="L359" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E360" s="23"/>
       <c r="L360" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E361" s="23"/>
       <c r="L361" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E362" s="23"/>
       <c r="L362" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E363" s="23"/>
       <c r="L363" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E364" s="23"/>
       <c r="L364" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E365" s="23"/>
       <c r="L365" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E366" s="23"/>
       <c r="L366" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E367" s="23"/>
       <c r="L367" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E368" s="23"/>
       <c r="L368" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
@@ -22901,62 +22652,6 @@
     <row r="1448" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E1448" s="23"/>
       <c r="L1448" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1449" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1449" s="23"/>
-      <c r="L1449" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1450" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1450" s="23"/>
-      <c r="L1450" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1451" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1451" s="23"/>
-      <c r="L1451" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1452" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1452" s="23"/>
-      <c r="L1452" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1453" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1453" s="23"/>
-      <c r="L1453" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1454" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1454" s="23"/>
-      <c r="L1454" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1455" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1455" s="23"/>
-      <c r="L1455" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1456" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1456" s="23"/>
-      <c r="L1456" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v/>
       </c>
@@ -22966,8 +22661,8 @@
     <hyperlink ref="J19" r:id="rId1"/>
     <hyperlink ref="J71" r:id="rId2"/>
     <hyperlink ref="J207" r:id="rId3"/>
-    <hyperlink ref="J319" r:id="rId4" display="https://bjui-journals-onlinelibrary-wiley-com.eur.idm.oclc.org/doi/pdfdirect/10.1111/j.1464-410X.2012.11116.x"/>
-    <hyperlink ref="J338" r:id="rId5" display="https://bjui-journals-onlinelibrary-wiley-com.eur.idm.oclc.org/doi/full/10.1111/j.1464-410X.2007.07168.x en https:/www-karger-com.eur.idm.oclc.org/Article/FullText/20298"/>
+    <hyperlink ref="J311" r:id="rId4" display="https://bjui-journals-onlinelibrary-wiley-com.eur.idm.oclc.org/doi/pdfdirect/10.1111/j.1464-410X.2012.11116.x"/>
+    <hyperlink ref="J330" r:id="rId5" display="https://bjui-journals-onlinelibrary-wiley-com.eur.idm.oclc.org/doi/full/10.1111/j.1464-410X.2007.07168.x en https:/www-karger-com.eur.idm.oclc.org/Article/FullText/20298"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -22981,8 +22676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView topLeftCell="D187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E161" sqref="E2:E201"/>
+    <sheetView topLeftCell="E187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29221,27 +28916,95 @@
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
-        <v>Nee</v>
+        <v>Ja</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
-      </c>
-      <c r="M202" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>13</v>
+      </c>
+      <c r="F202" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G202" s="11">
+        <v>1</v>
+      </c>
+      <c r="H202" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I202" s="11">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>9</v>
+      </c>
+      <c r="K202" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L202">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="23" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
-        <v>Nee</v>
+        <v>Ja</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E203" t="s">
-        <v>16</v>
-      </c>
-      <c r="M203" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>15</v>
+      </c>
+      <c r="F203" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" s="11">
+        <v>1</v>
+      </c>
+      <c r="H203" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I203" s="11">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L203">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>0</v>
+      </c>
+      <c r="M203" s="23" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="N203" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -29249,51 +29012,175 @@
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
+      <c r="B204" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E204" t="s">
-        <v>1</v>
-      </c>
-      <c r="M204" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="F204" s="23"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204"/>
+      <c r="K204" s="11"/>
+      <c r="L204">
+        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
+        <v>0</v>
+      </c>
+      <c r="M204" s="11" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
-        <v>Nee</v>
+        <v>Ja</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>17</v>
-      </c>
-      <c r="M205" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>14</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G205" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H205" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I205" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="J205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L205" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
+        <v>Expert panel</v>
+      </c>
+      <c r="M205" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="N205" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
-        <v>Nee</v>
+        <v>Ja</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
-      </c>
-      <c r="M206" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>16</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G206" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="H206" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="I206" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J206" t="s">
+        <v>9</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L206" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="Experts","Expert panel",)</f>
+        <v>Expert panel</v>
+      </c>
+      <c r="M206" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
-        <v>Nee</v>
+        <v>Ja</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
-      </c>
-      <c r="M207" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>1</v>
+      </c>
+      <c r="F207" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G207" s="11">
+        <v>35</v>
+      </c>
+      <c r="H207" s="11">
+        <v>20</v>
+      </c>
+      <c r="I207" s="11">
+        <v>45</v>
+      </c>
+      <c r="J207" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L207">
+        <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
+        <v>0</v>
+      </c>
+      <c r="M207" s="23" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v>IIb</v>
+      </c>
+      <c r="N207" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -29301,28 +29188,72 @@
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
+      <c r="B208" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E208" t="s">
-        <v>15</v>
-      </c>
-      <c r="M208" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F208" s="23"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208"/>
+      <c r="K208" s="11"/>
+      <c r="L208" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
+        <v/>
+      </c>
+      <c r="M208" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v/>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
+      <c r="B209" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E209" t="s">
-        <v>0</v>
-      </c>
-      <c r="M209" s="28" t="str">
-        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F209" s="23"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209"/>
+      <c r="K209" s="11"/>
+      <c r="L209" t="str">
+        <f>IF(Tabel1[[#This Row],[Source]]="","",)</f>
+        <v/>
+      </c>
+      <c r="M209" s="11" t="str">
+        <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
+        <v/>
+      </c>
+      <c r="N209" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29335,7 +29266,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29348,7 +29279,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29361,7 +29292,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29374,7 +29305,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29387,7 +29318,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29400,7 +29331,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29413,7 +29344,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29426,7 +29357,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29439,7 +29370,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29452,7 +29383,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29465,7 +29396,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29478,7 +29409,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29491,7 +29422,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -29504,7 +29435,7 @@
         <v>IIb</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="27" t="str">
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
@@ -30640,12 +30571,12 @@
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="29" t="s">
         <v>13</v>
       </c>
       <c r="M311" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v>IIb</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -30653,12 +30584,12 @@
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="29" t="s">
         <v>15</v>
       </c>
       <c r="M312" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
+        <v>IIb</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -30666,7 +30597,7 @@
         <f>IF(Tabel2[[#This Row],[Med]]&gt;0,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="29" t="s">
         <v>0</v>
       </c>
       <c r="M313" s="28" t="str">
@@ -30697,7 +30628,7 @@
       </c>
       <c r="M315" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v>IIb</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
@@ -30853,7 +30784,7 @@
       </c>
       <c r="M327" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>IIa</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -30957,7 +30888,7 @@
       </c>
       <c r="M335" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
+        <v>III</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
@@ -30970,7 +30901,7 @@
       </c>
       <c r="M336" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>III</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
@@ -30983,7 +30914,7 @@
       </c>
       <c r="M337" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
+        <v>III</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
@@ -30996,7 +30927,7 @@
       </c>
       <c r="M338" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v>IIa</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
@@ -31009,7 +30940,7 @@
       </c>
       <c r="M339" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v>IIa</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
@@ -31022,7 +30953,7 @@
       </c>
       <c r="M340" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v/>
+        <v>III</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
@@ -31074,7 +31005,7 @@
       </c>
       <c r="M344" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v/>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
@@ -31100,7 +31031,7 @@
       </c>
       <c r="M346" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
+        <v/>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
@@ -31113,7 +31044,7 @@
       </c>
       <c r="M347" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIa</v>
+        <v/>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -31126,7 +31057,7 @@
       </c>
       <c r="M348" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v/>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
@@ -31139,7 +31070,7 @@
       </c>
       <c r="M349" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v/>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
@@ -31152,7 +31083,7 @@
       </c>
       <c r="M350" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>IIb</v>
+        <v/>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
@@ -31165,7 +31096,7 @@
       </c>
       <c r="M351" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v/>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
@@ -31191,7 +31122,7 @@
       </c>
       <c r="M353" s="28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
-        <v>III</v>
+        <v/>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">

--- a/Data/Model parameters.xlsx
+++ b/Data/Model parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\GitHub\Utilitarian-distribution-of-OR-capacity-during-COVID-19\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCFB3C-7D3D-49A2-A19B-FC39D983B372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2CDD1-518F-42EE-B2F8-4043799B6929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="241">
   <si>
     <t>Tx_eff</t>
   </si>
@@ -492,9 +492,6 @@
     <t>Lee J, Kwon S, Choi G, et al. J. Surg. Oncol. 2014;110:468-475</t>
   </si>
   <si>
-    <t>Cerical ca., resection</t>
-  </si>
-  <si>
     <t>Patients with cervical cancer</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>Pedregal-Mallo D, Sánchez Canteli M, López F, et al. Laryngology 2018;275:2071-2077</t>
   </si>
   <si>
-    <t>Patients with mild laryngeal carcinomia</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -675,27 +669,15 @@
     <t>Penis cancer, resection</t>
   </si>
   <si>
-    <t>Women with resectable Breast cancerncer (too large for breast-saving surgery)</t>
-  </si>
-  <si>
     <t>Low-risk endometrium cancer, resection</t>
   </si>
   <si>
-    <t>Patients with low-risk endometrium cancerrcinoma</t>
-  </si>
-  <si>
     <t>High-risk endometrium cancer, resection</t>
   </si>
   <si>
-    <t>Patients with high-risk endometrium cancerrcinoma</t>
-  </si>
-  <si>
     <t>MI bladder cancer, cystectomy</t>
   </si>
   <si>
-    <t xml:space="preserve">Patients with muscle invasive bladder cancerrcinoma </t>
-  </si>
-  <si>
     <t>Renal cancer, partial nefrectomy</t>
   </si>
   <si>
@@ -754,6 +736,18 @@
   </si>
   <si>
     <t>Pancreas cancer, Whipple</t>
+  </si>
+  <si>
+    <t>Patients with low-risk endometrium cancer</t>
+  </si>
+  <si>
+    <t>Patients with high-risk endometrium cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with muscle invasive bladder cancer </t>
+  </si>
+  <si>
+    <t>Patients with mild laryngeal cancer</t>
   </si>
 </sst>
 </file>
@@ -1179,11 +1173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B318" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1234,21 +1228,21 @@
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1267,22 +1261,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L2" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1317,15 +1311,15 @@
         <v>IIb</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1352,22 +1346,22 @@
         <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L4" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1402,15 +1396,15 @@
         <v>IIb</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1445,15 +1439,15 @@
         <v>IIb</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1480,22 +1474,22 @@
         <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1522,22 +1516,22 @@
         <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L8" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1558,15 +1552,15 @@
         <v/>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1585,22 +1579,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1635,15 +1629,15 @@
         <v>IIb</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1670,22 +1664,22 @@
         <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1720,15 +1714,15 @@
         <v>IIb</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1763,15 +1757,15 @@
         <v>IIb</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1798,22 +1792,22 @@
         <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1840,22 +1834,22 @@
         <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1876,7 +1870,7 @@
         <v/>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1903,14 +1897,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1945,14 +1939,14 @@
         <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1987,14 +1981,14 @@
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2037,7 +2031,7 @@
         <v>IIb</v>
       </c>
       <c r="M21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2080,7 +2074,7 @@
         <v>IIb</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2115,14 +2109,14 @@
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2151,7 +2145,7 @@
         <v/>
       </c>
       <c r="M24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2180,7 +2174,7 @@
         <v/>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2188,7 +2182,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
@@ -2207,14 +2201,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2222,7 +2216,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -2257,7 +2251,7 @@
         <v>IIb</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2265,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -2292,14 +2286,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2307,7 +2301,7 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -2342,7 +2336,7 @@
         <v>IIb</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2350,7 +2344,7 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -2385,7 +2379,7 @@
         <v>IIb</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2393,7 +2387,7 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -2420,14 +2414,14 @@
         <v>107</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2435,7 +2429,7 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -2462,14 +2456,14 @@
         <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2477,7 +2471,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
@@ -2498,15 +2492,15 @@
         <v/>
       </c>
       <c r="M33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
         <v>93</v>
@@ -2541,15 +2535,15 @@
         <v>IIb</v>
       </c>
       <c r="M34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
@@ -2584,15 +2578,15 @@
         <v>IIb</v>
       </c>
       <c r="M35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
@@ -2613,15 +2607,15 @@
         <v/>
       </c>
       <c r="M36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -2656,15 +2650,15 @@
         <v>IIb</v>
       </c>
       <c r="M37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
         <v>93</v>
@@ -2699,15 +2693,15 @@
         <v>IIb</v>
       </c>
       <c r="M38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
@@ -2734,22 +2728,22 @@
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
         <v>93</v>
@@ -2776,22 +2770,22 @@
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>93</v>
@@ -2812,15 +2806,15 @@
         <v/>
       </c>
       <c r="M41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
         <v>141</v>
@@ -2839,22 +2833,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
         <v>141</v>
@@ -2881,22 +2875,22 @@
         <v>142</v>
       </c>
       <c r="K43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
         <v>141</v>
@@ -2923,22 +2917,22 @@
         <v>142</v>
       </c>
       <c r="K44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
         <v>141</v>
@@ -2973,15 +2967,15 @@
         <v>IIb</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
         <v>141</v>
@@ -3016,15 +3010,15 @@
         <v>IIb</v>
       </c>
       <c r="M46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
         <v>141</v>
@@ -3051,22 +3045,22 @@
         <v>142</v>
       </c>
       <c r="K47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>141</v>
@@ -3093,22 +3087,22 @@
         <v>143</v>
       </c>
       <c r="K48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
         <v>141</v>
@@ -3125,15 +3119,15 @@
         <v/>
       </c>
       <c r="M49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
@@ -3152,22 +3146,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
@@ -3202,15 +3196,15 @@
         <v>IIb</v>
       </c>
       <c r="M51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
@@ -3237,22 +3231,22 @@
         <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
@@ -3287,15 +3281,15 @@
         <v>IIb</v>
       </c>
       <c r="M53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
@@ -3330,15 +3324,15 @@
         <v>IIb</v>
       </c>
       <c r="M54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
@@ -3365,22 +3359,22 @@
         <v>111</v>
       </c>
       <c r="K55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -3407,22 +3401,22 @@
         <v>111</v>
       </c>
       <c r="K56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
@@ -3443,7 +3437,7 @@
         <v/>
       </c>
       <c r="M57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3478,14 +3472,14 @@
         <v>112</v>
       </c>
       <c r="K58" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
         <v>IIb</v>
       </c>
       <c r="M59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3557,7 +3551,7 @@
         <v/>
       </c>
       <c r="M60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
         <v>IIb</v>
       </c>
       <c r="M61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3643,7 +3637,7 @@
         <v>IIb</v>
       </c>
       <c r="M62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3678,14 +3672,14 @@
         <v>113</v>
       </c>
       <c r="K63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3720,14 +3714,14 @@
         <v>113</v>
       </c>
       <c r="K64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3756,7 +3750,7 @@
         <v/>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3791,14 +3785,14 @@
         <v>114</v>
       </c>
       <c r="K66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3833,14 +3827,14 @@
         <v>114</v>
       </c>
       <c r="K67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3869,7 +3863,7 @@
         <v/>
       </c>
       <c r="M68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3912,7 +3906,7 @@
         <v>IIb</v>
       </c>
       <c r="M69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3955,7 +3949,7 @@
         <v>IIb</v>
       </c>
       <c r="M70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3990,14 +3984,14 @@
         <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -4026,7 +4020,7 @@
         <v/>
       </c>
       <c r="M72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -4055,7 +4049,7 @@
         <v/>
       </c>
       <c r="M73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -4082,14 +4076,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -4132,7 +4126,7 @@
         <v>IIb</v>
       </c>
       <c r="M75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -4167,14 +4161,14 @@
         <v>115</v>
       </c>
       <c r="K76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -4217,7 +4211,7 @@
         <v>IIb</v>
       </c>
       <c r="M77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -4260,7 +4254,7 @@
         <v>IIb</v>
       </c>
       <c r="M78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -4295,14 +4289,14 @@
         <v>115</v>
       </c>
       <c r="K79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4331,7 +4325,7 @@
         <v/>
       </c>
       <c r="M80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4360,7 +4354,7 @@
         <v/>
       </c>
       <c r="M81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -4387,14 +4381,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -4437,7 +4431,7 @@
         <v>IIb</v>
       </c>
       <c r="M83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -4472,14 +4466,14 @@
         <v>116</v>
       </c>
       <c r="K84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -4522,7 +4516,7 @@
         <v>IIb</v>
       </c>
       <c r="M85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -4565,7 +4559,7 @@
         <v>IIb</v>
       </c>
       <c r="M86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -4600,14 +4594,14 @@
         <v>116</v>
       </c>
       <c r="K87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -4636,7 +4630,7 @@
         <v/>
       </c>
       <c r="M88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4665,15 +4659,15 @@
         <v/>
       </c>
       <c r="M89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
         <v>82</v>
@@ -4692,22 +4686,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
         <v>82</v>
@@ -4742,15 +4736,15 @@
         <v>IIb</v>
       </c>
       <c r="M91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
         <v>82</v>
@@ -4774,25 +4768,25 @@
         <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
         <v>82</v>
@@ -4827,15 +4821,15 @@
         <v>IIb</v>
       </c>
       <c r="M93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
         <v>82</v>
@@ -4870,15 +4864,15 @@
         <v>IIb</v>
       </c>
       <c r="M94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
         <v>82</v>
@@ -4902,25 +4896,25 @@
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
         <v>82</v>
@@ -4947,22 +4941,22 @@
         <v>140</v>
       </c>
       <c r="K96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
         <v>82</v>
@@ -4979,7 +4973,7 @@
         <v/>
       </c>
       <c r="M97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -4987,7 +4981,7 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
         <v>89</v>
@@ -5014,14 +5008,14 @@
         <v>117</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -5029,7 +5023,7 @@
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
         <v>89</v>
@@ -5064,7 +5058,7 @@
         <v>IIb</v>
       </c>
       <c r="M99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -5072,7 +5066,7 @@
         <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
         <v>89</v>
@@ -5093,7 +5087,7 @@
         <v/>
       </c>
       <c r="M100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -5101,7 +5095,7 @@
         <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
         <v>89</v>
@@ -5136,7 +5130,7 @@
         <v>IIb</v>
       </c>
       <c r="M101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -5144,7 +5138,7 @@
         <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
@@ -5179,7 +5173,7 @@
         <v>IIb</v>
       </c>
       <c r="M102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -5187,7 +5181,7 @@
         <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>89</v>
@@ -5214,14 +5208,14 @@
         <v>118</v>
       </c>
       <c r="K103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -5229,7 +5223,7 @@
         <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
@@ -5256,14 +5250,14 @@
         <v>119</v>
       </c>
       <c r="K104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -5271,7 +5265,7 @@
         <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
@@ -5292,15 +5286,15 @@
         <v/>
       </c>
       <c r="M105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
         <v>146</v>
@@ -5319,22 +5313,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M106" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
         <v>146</v>
@@ -5369,15 +5363,15 @@
         <v>IIb</v>
       </c>
       <c r="M107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
         <v>146</v>
@@ -5404,22 +5398,22 @@
         <v>144</v>
       </c>
       <c r="K108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
         <v>146</v>
@@ -5454,15 +5448,15 @@
         <v>IIb</v>
       </c>
       <c r="M109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
         <v>146</v>
@@ -5497,15 +5491,15 @@
         <v>IIb</v>
       </c>
       <c r="M110" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
         <v>146</v>
@@ -5532,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="K111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L111" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
         <v>146</v>
@@ -5574,22 +5568,22 @@
         <v>145</v>
       </c>
       <c r="K112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L112" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C113" t="s">
         <v>146</v>
@@ -5606,7 +5600,7 @@
         <v/>
       </c>
       <c r="M113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -5633,14 +5627,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L114" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -5675,14 +5669,14 @@
         <v>147</v>
       </c>
       <c r="K115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L115" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -5714,17 +5708,17 @@
         <v>26</v>
       </c>
       <c r="J116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L116" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -5767,7 +5761,7 @@
         <v>IIb</v>
       </c>
       <c r="M117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -5810,7 +5804,7 @@
         <v>IIb</v>
       </c>
       <c r="M118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -5845,14 +5839,14 @@
         <v>147</v>
       </c>
       <c r="K119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L119" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -5878,7 +5872,7 @@
         <v/>
       </c>
       <c r="M120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -5904,7 +5898,7 @@
         <v/>
       </c>
       <c r="M121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -5931,14 +5925,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K122" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L122" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -5973,14 +5967,14 @@
         <v>120</v>
       </c>
       <c r="K123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L123" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -6015,14 +6009,14 @@
         <v>121</v>
       </c>
       <c r="K124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L124" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -6065,7 +6059,7 @@
         <v>IIb</v>
       </c>
       <c r="M125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -6108,7 +6102,7 @@
         <v>IIb</v>
       </c>
       <c r="M126" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -6143,14 +6137,14 @@
         <v>122</v>
       </c>
       <c r="K127" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L127" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -6179,7 +6173,7 @@
         <v/>
       </c>
       <c r="M128" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -6208,7 +6202,7 @@
         <v/>
       </c>
       <c r="M129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -6240,17 +6234,17 @@
         <v>9</v>
       </c>
       <c r="J130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K130" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L130" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -6282,17 +6276,17 @@
         <v>9</v>
       </c>
       <c r="J131" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L131" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -6321,7 +6315,7 @@
         <v/>
       </c>
       <c r="M132" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -6364,7 +6358,7 @@
         <v>IIb</v>
       </c>
       <c r="M133" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -6407,7 +6401,7 @@
         <v>IIb</v>
       </c>
       <c r="M134" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -6439,17 +6433,17 @@
         <v>22</v>
       </c>
       <c r="J135" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K135" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L135" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M135" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -6478,7 +6472,7 @@
         <v/>
       </c>
       <c r="M136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -6503,7 +6497,7 @@
         <v/>
       </c>
       <c r="M137" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -6538,14 +6532,14 @@
         <v>123</v>
       </c>
       <c r="K138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L138" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -6580,14 +6574,14 @@
         <v>123</v>
       </c>
       <c r="K139" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L139" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M139" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -6616,7 +6610,7 @@
         <v/>
       </c>
       <c r="M140" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -6659,7 +6653,7 @@
         <v>IIb</v>
       </c>
       <c r="M141" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -6702,7 +6696,7 @@
         <v>IIb</v>
       </c>
       <c r="M142" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -6737,14 +6731,14 @@
         <v>123</v>
       </c>
       <c r="K143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L143" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -6773,7 +6767,7 @@
         <v/>
       </c>
       <c r="M144" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -6802,7 +6796,7 @@
         <v/>
       </c>
       <c r="M145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -6829,14 +6823,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K146" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L146" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -6879,7 +6873,7 @@
         <v>IIb</v>
       </c>
       <c r="M147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -6914,14 +6908,14 @@
         <v>124</v>
       </c>
       <c r="K148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L148" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M148" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -6964,7 +6958,7 @@
         <v>IIb</v>
       </c>
       <c r="M149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -7007,7 +7001,7 @@
         <v>IIb</v>
       </c>
       <c r="M150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -7050,7 +7044,7 @@
         <v>IIb</v>
       </c>
       <c r="M151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -7079,7 +7073,7 @@
         <v/>
       </c>
       <c r="M152" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -7108,7 +7102,7 @@
         <v/>
       </c>
       <c r="M153" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -7135,14 +7129,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K154" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L154" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M154" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -7185,7 +7179,7 @@
         <v>IIb</v>
       </c>
       <c r="M155" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -7220,14 +7214,14 @@
         <v>125</v>
       </c>
       <c r="K156" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L156" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M156" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -7270,7 +7264,7 @@
         <v>IIb</v>
       </c>
       <c r="M157" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -7313,7 +7307,7 @@
         <v>IIb</v>
       </c>
       <c r="M158" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -7356,7 +7350,7 @@
         <v>IIb</v>
       </c>
       <c r="M159" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -7385,7 +7379,7 @@
         <v/>
       </c>
       <c r="M160" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -7414,7 +7408,7 @@
         <v/>
       </c>
       <c r="M161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -7441,14 +7435,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K162" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L162" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M162" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -7483,14 +7477,14 @@
         <v>126</v>
       </c>
       <c r="K163" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L163" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -7525,14 +7519,14 @@
         <v>127</v>
       </c>
       <c r="K164" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L164" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M164" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -7575,7 +7569,7 @@
         <v>IIb</v>
       </c>
       <c r="M165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -7618,7 +7612,7 @@
         <v>IIb</v>
       </c>
       <c r="M166" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -7661,7 +7655,7 @@
         <v>IIb</v>
       </c>
       <c r="M167" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -7690,7 +7684,7 @@
         <v/>
       </c>
       <c r="M168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -7719,7 +7713,7 @@
         <v/>
       </c>
       <c r="M169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -7754,14 +7748,14 @@
         <v>128</v>
       </c>
       <c r="K170" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L170" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -7796,14 +7790,14 @@
         <v>129</v>
       </c>
       <c r="K171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L171" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -7832,7 +7826,7 @@
         <v/>
       </c>
       <c r="M172" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -7875,7 +7869,7 @@
         <v>IIb</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -7918,7 +7912,7 @@
         <v>IIb</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -7953,14 +7947,14 @@
         <v>128</v>
       </c>
       <c r="K175" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L175" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -7989,7 +7983,7 @@
         <v/>
       </c>
       <c r="M176" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -8018,7 +8012,7 @@
         <v/>
       </c>
       <c r="M177" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -8053,14 +8047,14 @@
         <v>128</v>
       </c>
       <c r="K178" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L178" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -8095,14 +8089,14 @@
         <v>130</v>
       </c>
       <c r="K179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L179" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -8131,7 +8125,7 @@
         <v/>
       </c>
       <c r="M180" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -8174,7 +8168,7 @@
         <v>IIb</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -8217,7 +8211,7 @@
         <v>IIb</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -8252,14 +8246,14 @@
         <v>130</v>
       </c>
       <c r="K183" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L183" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -8288,7 +8282,7 @@
         <v/>
       </c>
       <c r="M184" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -8317,12 +8311,12 @@
         <v/>
       </c>
       <c r="M185" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B186" t="s">
         <v>76</v>
@@ -8352,19 +8346,19 @@
         <v>131</v>
       </c>
       <c r="K186" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L186" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B187" t="s">
         <v>76</v>
@@ -8394,14 +8388,14 @@
         <v>131</v>
       </c>
       <c r="K187" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L187" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -8430,12 +8424,12 @@
         <v/>
       </c>
       <c r="M188" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B189" t="s">
         <v>76</v>
@@ -8473,12 +8467,12 @@
         <v>IIb</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B190" t="s">
         <v>76</v>
@@ -8516,12 +8510,12 @@
         <v>IIb</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B191" t="s">
         <v>76</v>
@@ -8551,14 +8545,14 @@
         <v>131</v>
       </c>
       <c r="K191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L191" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -8587,12 +8581,12 @@
         <v/>
       </c>
       <c r="M192" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B193" t="s">
         <v>76</v>
@@ -8622,19 +8616,19 @@
         <v>131</v>
       </c>
       <c r="K193" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L193" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B194" t="s">
         <v>80</v>
@@ -8656,19 +8650,19 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K194" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L194" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B195" t="s">
         <v>80</v>
@@ -8698,19 +8692,19 @@
         <v>132</v>
       </c>
       <c r="K195" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L195" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
         <v>80</v>
@@ -8737,22 +8731,22 @@
         <v>22</v>
       </c>
       <c r="J196" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K196" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L196" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
         <v>80</v>
@@ -8790,12 +8784,12 @@
         <v>IIb</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -8833,12 +8827,12 @@
         <v>IIb</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199" t="s">
         <v>80</v>
@@ -8868,19 +8862,19 @@
         <v>132</v>
       </c>
       <c r="K199" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L199" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
         <v>80</v>
@@ -8904,12 +8898,12 @@
         <v/>
       </c>
       <c r="M200" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
         <v>80</v>
@@ -8933,7 +8927,7 @@
         <v/>
       </c>
       <c r="M201" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -8960,14 +8954,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L202" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M202" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -9002,14 +8996,14 @@
         <v>98</v>
       </c>
       <c r="K203" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L203" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M203" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -9041,17 +9035,17 @@
         <v>9</v>
       </c>
       <c r="J204" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K204" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L204" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M204" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -9094,7 +9088,7 @@
         <v>IIb</v>
       </c>
       <c r="M205" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -9137,7 +9131,7 @@
         <v>IIb</v>
       </c>
       <c r="M206" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -9172,14 +9166,14 @@
         <v>98</v>
       </c>
       <c r="K207" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L207" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M207" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -9208,7 +9202,7 @@
         <v/>
       </c>
       <c r="M208" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -9237,15 +9231,15 @@
         <v/>
       </c>
       <c r="M209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C210" t="s">
         <v>82</v>
@@ -9272,22 +9266,22 @@
         <v>133</v>
       </c>
       <c r="K210" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L210" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M210" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C211" t="s">
         <v>82</v>
@@ -9314,22 +9308,22 @@
         <v>133</v>
       </c>
       <c r="K211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L211" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M211" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C212" t="s">
         <v>82</v>
@@ -9350,15 +9344,15 @@
         <v/>
       </c>
       <c r="M212" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C213" t="s">
         <v>82</v>
@@ -9393,15 +9387,15 @@
         <v>IIb</v>
       </c>
       <c r="M213" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C214" t="s">
         <v>82</v>
@@ -9436,15 +9430,15 @@
         <v>IIb</v>
       </c>
       <c r="M214" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C215" t="s">
         <v>82</v>
@@ -9471,22 +9465,22 @@
         <v>133</v>
       </c>
       <c r="K215" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L215" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M215" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C216" t="s">
         <v>82</v>
@@ -9513,22 +9507,22 @@
         <v>133</v>
       </c>
       <c r="K216" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L216" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C217" t="s">
         <v>82</v>
@@ -9549,15 +9543,15 @@
         <v/>
       </c>
       <c r="M217" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
         <v>82</v>
@@ -9584,22 +9578,22 @@
         <v>133</v>
       </c>
       <c r="K218" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L218" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M218" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C219" t="s">
         <v>82</v>
@@ -9626,22 +9620,22 @@
         <v>133</v>
       </c>
       <c r="K219" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L219" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M219" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C220" t="s">
         <v>82</v>
@@ -9662,15 +9656,15 @@
         <v/>
       </c>
       <c r="M220" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C221" t="s">
         <v>82</v>
@@ -9705,15 +9699,15 @@
         <v>IIb</v>
       </c>
       <c r="M221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C222" t="s">
         <v>82</v>
@@ -9748,15 +9742,15 @@
         <v>IIb</v>
       </c>
       <c r="M222" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C223" t="s">
         <v>82</v>
@@ -9783,22 +9777,22 @@
         <v>133</v>
       </c>
       <c r="K223" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L223" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M223" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C224" t="s">
         <v>82</v>
@@ -9825,22 +9819,22 @@
         <v>133</v>
       </c>
       <c r="K224" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L224" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B225" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C225" t="s">
         <v>82</v>
@@ -9861,15 +9855,15 @@
         <v/>
       </c>
       <c r="M225" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226" t="s">
         <v>82</v>
@@ -9888,22 +9882,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K226" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L226" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M226" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C227" t="s">
         <v>82</v>
@@ -9938,15 +9932,15 @@
         <v>IIb</v>
       </c>
       <c r="M227" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C228" t="s">
         <v>82</v>
@@ -9970,25 +9964,25 @@
         <v>26</v>
       </c>
       <c r="J228" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K228" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L228" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M228" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C229" t="s">
         <v>82</v>
@@ -10023,15 +10017,15 @@
         <v>IIb</v>
       </c>
       <c r="M229" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C230" t="s">
         <v>82</v>
@@ -10066,15 +10060,15 @@
         <v>IIb</v>
       </c>
       <c r="M230" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B231" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C231" t="s">
         <v>82</v>
@@ -10098,25 +10092,25 @@
         <v>22</v>
       </c>
       <c r="J231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K231" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L231" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M231" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B232" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C232" t="s">
         <v>82</v>
@@ -10140,25 +10134,25 @@
         <v>9</v>
       </c>
       <c r="J232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K232" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L232" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M232" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" t="s">
         <v>155</v>
-      </c>
-      <c r="B233" t="s">
-        <v>156</v>
       </c>
       <c r="C233" t="s">
         <v>82</v>
@@ -10175,15 +10169,15 @@
         <v/>
       </c>
       <c r="M233" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C234" t="s">
         <v>84</v>
@@ -10210,22 +10204,22 @@
         <v>134</v>
       </c>
       <c r="K234" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L234" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M234" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C235" t="s">
         <v>84</v>
@@ -10252,22 +10246,22 @@
         <v>134</v>
       </c>
       <c r="K235" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L235" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M235" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C236" t="s">
         <v>84</v>
@@ -10288,15 +10282,15 @@
         <v/>
       </c>
       <c r="M236" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C237" t="s">
         <v>84</v>
@@ -10331,15 +10325,15 @@
         <v>IIb</v>
       </c>
       <c r="M237" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C238" t="s">
         <v>84</v>
@@ -10374,15 +10368,15 @@
         <v>IIb</v>
       </c>
       <c r="M238" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C239" t="s">
         <v>84</v>
@@ -10409,22 +10403,22 @@
         <v>134</v>
       </c>
       <c r="K239" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L239" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>I</v>
       </c>
       <c r="M239" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C240" t="s">
         <v>84</v>
@@ -10445,15 +10439,15 @@
         <v/>
       </c>
       <c r="M240" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B241" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C241" t="s">
         <v>84</v>
@@ -10474,7 +10468,7 @@
         <v/>
       </c>
       <c r="M241" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -10501,14 +10495,14 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K242" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L242" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M242" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -10543,14 +10537,14 @@
         <v>135</v>
       </c>
       <c r="K243" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L243" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M243" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -10585,14 +10579,14 @@
         <v>136</v>
       </c>
       <c r="K244" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L244" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M244" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -10635,7 +10629,7 @@
         <v>IIb</v>
       </c>
       <c r="M245" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -10678,7 +10672,7 @@
         <v>IIb</v>
       </c>
       <c r="M246" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -10713,14 +10707,14 @@
         <v>135</v>
       </c>
       <c r="K247" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L247" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M247" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -10749,7 +10743,7 @@
         <v/>
       </c>
       <c r="M248" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
@@ -10778,15 +10772,15 @@
         <v/>
       </c>
       <c r="M249" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B250" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C250" t="s">
         <v>82</v>
@@ -10813,22 +10807,22 @@
         <v>137</v>
       </c>
       <c r="K250" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L250" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M250" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B251" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C251" t="s">
         <v>82</v>
@@ -10855,22 +10849,22 @@
         <v>137</v>
       </c>
       <c r="K251" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L251" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M251" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B252" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C252" t="s">
         <v>82</v>
@@ -10891,15 +10885,15 @@
         <v/>
       </c>
       <c r="M252" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B253" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C253" t="s">
         <v>82</v>
@@ -10934,15 +10928,15 @@
         <v>IIb</v>
       </c>
       <c r="M253" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B254" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C254" t="s">
         <v>82</v>
@@ -10977,15 +10971,15 @@
         <v>IIb</v>
       </c>
       <c r="M254" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B255" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C255" t="s">
         <v>82</v>
@@ -11012,22 +11006,22 @@
         <v>138</v>
       </c>
       <c r="K255" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L255" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M255" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B256" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C256" t="s">
         <v>82</v>
@@ -11054,22 +11048,22 @@
         <v>138</v>
       </c>
       <c r="K256" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L256" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M256" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B257" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C257" t="s">
         <v>82</v>
@@ -11086,15 +11080,15 @@
         <v/>
       </c>
       <c r="M257" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C258" t="s">
         <v>82</v>
@@ -11113,22 +11107,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K258" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L258" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M258" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B259" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C259" t="s">
         <v>82</v>
@@ -11163,15 +11157,15 @@
         <v>IIb</v>
       </c>
       <c r="M259" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B260" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C260" t="s">
         <v>82</v>
@@ -11195,25 +11189,25 @@
         <v>26</v>
       </c>
       <c r="J260" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K260" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L260" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M260" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C261" t="s">
         <v>82</v>
@@ -11248,15 +11242,15 @@
         <v>IIb</v>
       </c>
       <c r="M261" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B262" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C262" t="s">
         <v>82</v>
@@ -11291,15 +11285,15 @@
         <v>IIb</v>
       </c>
       <c r="M262" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B263" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C263" t="s">
         <v>82</v>
@@ -11326,22 +11320,22 @@
         <v>139</v>
       </c>
       <c r="K263" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L263" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M263" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B264" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C264" t="s">
         <v>82</v>
@@ -11368,22 +11362,22 @@
         <v>140</v>
       </c>
       <c r="K264" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L264" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M264" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B265" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C265" t="s">
         <v>82</v>
@@ -11400,15 +11394,15 @@
         <v/>
       </c>
       <c r="M265" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B266" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C266" t="s">
         <v>151</v>
@@ -11427,22 +11421,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K266" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L266" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M266" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B267" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C267" t="s">
         <v>151</v>
@@ -11477,15 +11471,15 @@
         <v>IIb</v>
       </c>
       <c r="M267" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B268" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C268" t="s">
         <v>151</v>
@@ -11512,22 +11506,22 @@
         <v>152</v>
       </c>
       <c r="K268" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L268" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M268" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B269" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C269" t="s">
         <v>151</v>
@@ -11562,15 +11556,15 @@
         <v>IIb</v>
       </c>
       <c r="M269" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B270" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C270" t="s">
         <v>151</v>
@@ -11605,15 +11599,15 @@
         <v>IIb</v>
       </c>
       <c r="M270" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B271" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C271" t="s">
         <v>151</v>
@@ -11640,22 +11634,22 @@
         <v>153</v>
       </c>
       <c r="K271" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L271" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M271" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B272" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C272" t="s">
         <v>151</v>
@@ -11682,22 +11676,22 @@
         <v>154</v>
       </c>
       <c r="K272" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L272" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M272" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B273" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C273" t="s">
         <v>151</v>
@@ -11714,18 +11708,18 @@
         <v/>
       </c>
       <c r="M273" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B274" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C274" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D274" t="s">
         <v>13</v>
@@ -11746,34 +11740,34 @@
         <v>9</v>
       </c>
       <c r="J274" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K274" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L274" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M274" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B275" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C275" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D275" t="s">
         <v>15</v>
       </c>
       <c r="E275" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F275">
         <v>0.96940000000000004</v>
@@ -11799,18 +11793,18 @@
         <v>IIb</v>
       </c>
       <c r="M275" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B276" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C276" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D276" t="s">
         <v>0</v>
@@ -11824,18 +11818,18 @@
         <v/>
       </c>
       <c r="M276" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B277" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C277" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D277" t="s">
         <v>14</v>
@@ -11867,18 +11861,18 @@
         <v>IIb</v>
       </c>
       <c r="M277" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B278" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C278" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D278" t="s">
         <v>16</v>
@@ -11910,18 +11904,18 @@
         <v>IIb</v>
       </c>
       <c r="M278" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B279" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C279" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -11953,18 +11947,18 @@
         <v>IIb</v>
       </c>
       <c r="M279" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B280" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C280" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
@@ -11985,7 +11979,7 @@
         <v>9</v>
       </c>
       <c r="J280" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K280" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -11996,18 +11990,18 @@
         <v>III</v>
       </c>
       <c r="M280" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B281" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C281" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D281" t="s">
         <v>18</v>
@@ -12028,7 +12022,7 @@
         <v>9</v>
       </c>
       <c r="J281" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K281" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12039,18 +12033,18 @@
         <v>III</v>
       </c>
       <c r="M281" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B282" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C282" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D282" t="s">
         <v>13</v>
@@ -12071,7 +12065,7 @@
         <v>9</v>
       </c>
       <c r="J282" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K282" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12082,24 +12076,24 @@
         <v>III</v>
       </c>
       <c r="M282" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B283" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C283" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D283" t="s">
         <v>15</v>
       </c>
       <c r="E283" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F283">
         <v>0.96940000000000004</v>
@@ -12125,18 +12119,18 @@
         <v>IIb</v>
       </c>
       <c r="M283" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B284" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C284" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D284" t="s">
         <v>0</v>
@@ -12150,18 +12144,18 @@
         <v/>
       </c>
       <c r="M284" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B285" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C285" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D285" t="s">
         <v>14</v>
@@ -12193,18 +12187,18 @@
         <v>IIb</v>
       </c>
       <c r="M285" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B286" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C286" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D286" t="s">
         <v>16</v>
@@ -12236,18 +12230,18 @@
         <v>IIb</v>
       </c>
       <c r="M286" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B287" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C287" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D287" t="s">
         <v>1</v>
@@ -12279,18 +12273,18 @@
         <v>IIb</v>
       </c>
       <c r="M287" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B288" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C288" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D288" t="s">
         <v>17</v>
@@ -12311,7 +12305,7 @@
         <v>9</v>
       </c>
       <c r="J288" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K288" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12322,18 +12316,18 @@
         <v>III</v>
       </c>
       <c r="M288" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B289" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C289" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D289" t="s">
         <v>18</v>
@@ -12354,7 +12348,7 @@
         <v>9</v>
       </c>
       <c r="J289" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K289" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12365,18 +12359,18 @@
         <v>III</v>
       </c>
       <c r="M289" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B290" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C290" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D290" t="s">
         <v>13</v>
@@ -12397,7 +12391,7 @@
         <v>9</v>
       </c>
       <c r="J290" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K290" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12408,18 +12402,18 @@
         <v>III</v>
       </c>
       <c r="M290" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B291" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C291" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D291" t="s">
         <v>15</v>
@@ -12451,18 +12445,18 @@
         <v>IIb</v>
       </c>
       <c r="M291" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B292" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C292" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D292" t="s">
         <v>0</v>
@@ -12476,18 +12470,18 @@
         <v/>
       </c>
       <c r="M292" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B293" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C293" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D293" t="s">
         <v>14</v>
@@ -12519,18 +12513,18 @@
         <v>IIb</v>
       </c>
       <c r="M293" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B294" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C294" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D294" t="s">
         <v>16</v>
@@ -12562,18 +12556,18 @@
         <v>IIb</v>
       </c>
       <c r="M294" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B295" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C295" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -12605,18 +12599,18 @@
         <v>IIb</v>
       </c>
       <c r="M295" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B296" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C296" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
@@ -12637,7 +12631,7 @@
         <v>9</v>
       </c>
       <c r="J296" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K296" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12648,18 +12642,18 @@
         <v>III</v>
       </c>
       <c r="M296" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B297" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C297" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D297" t="s">
         <v>18</v>
@@ -12680,7 +12674,7 @@
         <v>9</v>
       </c>
       <c r="J297" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K297" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -12691,18 +12685,18 @@
         <v>III</v>
       </c>
       <c r="M297" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B298" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C298" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D298" t="s">
         <v>13</v>
@@ -12723,28 +12717,28 @@
         <v>9</v>
       </c>
       <c r="J298" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K298" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L298" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M298" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B299" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C299" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D299" t="s">
         <v>15</v>
@@ -12776,18 +12770,18 @@
         <v>IIb</v>
       </c>
       <c r="M299" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B300" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C300" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D300" t="s">
         <v>0</v>
@@ -12801,18 +12795,18 @@
         <v/>
       </c>
       <c r="M300" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B301" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C301" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D301" t="s">
         <v>14</v>
@@ -12844,18 +12838,18 @@
         <v>IIb</v>
       </c>
       <c r="M301" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B302" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C302" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D302" t="s">
         <v>16</v>
@@ -12887,18 +12881,18 @@
         <v>IIb</v>
       </c>
       <c r="M302" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B303" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C303" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D303" t="s">
         <v>1</v>
@@ -12930,18 +12924,18 @@
         <v>IIb</v>
       </c>
       <c r="M303" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B304" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C304" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D304" t="s">
         <v>17</v>
@@ -12951,18 +12945,18 @@
         <v/>
       </c>
       <c r="M304" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B305" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C305" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D305" t="s">
         <v>18</v>
@@ -12972,18 +12966,18 @@
         <v/>
       </c>
       <c r="M305" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D306" t="s">
         <v>13</v>
@@ -13004,28 +12998,28 @@
         <v>9</v>
       </c>
       <c r="J306" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K306" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L306" s="7" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D307" t="s">
         <v>15</v>
@@ -13046,28 +13040,28 @@
         <v>9</v>
       </c>
       <c r="J307" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K307" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L307" s="7" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D308" t="s">
         <v>0</v>
@@ -13086,18 +13080,18 @@
         <v/>
       </c>
       <c r="M308" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D309" t="s">
         <v>14</v>
@@ -13129,18 +13123,18 @@
         <v>IIb</v>
       </c>
       <c r="M309" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D310" t="s">
         <v>16</v>
@@ -13172,18 +13166,18 @@
         <v>IIb</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D311" t="s">
         <v>1</v>
@@ -13204,28 +13198,28 @@
         <v>22</v>
       </c>
       <c r="J311" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K311" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L311" s="7" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M311" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D312" t="s">
         <v>17</v>
@@ -13246,28 +13240,28 @@
         <v>9</v>
       </c>
       <c r="J312" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K312" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L312" s="7" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M312" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
@@ -13286,18 +13280,18 @@
         <v/>
       </c>
       <c r="M313" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D314" t="s">
         <v>13</v>
@@ -13318,7 +13312,7 @@
         <v>9</v>
       </c>
       <c r="J314" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K314" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -13329,18 +13323,18 @@
         <v>III</v>
       </c>
       <c r="M314" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D315" t="s">
         <v>15</v>
@@ -13372,18 +13366,18 @@
         <v>IIb</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D316" t="s">
         <v>0</v>
@@ -13402,18 +13396,18 @@
         <v/>
       </c>
       <c r="M316" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D317" t="s">
         <v>14</v>
@@ -13445,18 +13439,18 @@
         <v>IIb</v>
       </c>
       <c r="M317" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D318" t="s">
         <v>16</v>
@@ -13488,18 +13482,18 @@
         <v>IIb</v>
       </c>
       <c r="M318" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D319" t="s">
         <v>1</v>
@@ -13520,28 +13514,28 @@
         <v>9</v>
       </c>
       <c r="J319" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K319" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L319" s="6" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M319" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D320" t="s">
         <v>17</v>
@@ -13562,28 +13556,28 @@
         <v>9</v>
       </c>
       <c r="J320" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K320" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L320" s="6" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M320" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D321" t="s">
         <v>18</v>
@@ -13602,18 +13596,18 @@
         <v/>
       </c>
       <c r="M321" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D322" t="s">
         <v>13</v>
@@ -13634,7 +13628,7 @@
         <v>9</v>
       </c>
       <c r="J322" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K322" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -13645,18 +13639,18 @@
         <v>III</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D323" t="s">
         <v>15</v>
@@ -13688,18 +13682,18 @@
         <v>IIb</v>
       </c>
       <c r="M323" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D324" t="s">
         <v>0</v>
@@ -13718,18 +13712,18 @@
         <v/>
       </c>
       <c r="M324" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D325" t="s">
         <v>14</v>
@@ -13761,18 +13755,18 @@
         <v>IIb</v>
       </c>
       <c r="M325" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D326" t="s">
         <v>16</v>
@@ -13804,18 +13798,18 @@
         <v>IIb</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D327" t="s">
         <v>1</v>
@@ -13836,28 +13830,28 @@
         <v>9</v>
       </c>
       <c r="J327" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K327" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L327" s="6" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M327" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D328" t="s">
         <v>17</v>
@@ -13878,28 +13872,28 @@
         <v>9</v>
       </c>
       <c r="J328" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K328" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L328" s="6" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D329" t="s">
         <v>18</v>
@@ -13914,15 +13908,15 @@
         <v/>
       </c>
       <c r="M329" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>82</v>
@@ -13946,7 +13940,7 @@
         <v>9</v>
       </c>
       <c r="J330" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K330" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -13957,15 +13951,15 @@
         <v>III</v>
       </c>
       <c r="M330" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>82</v>
@@ -14000,15 +13994,15 @@
         <v>IIb</v>
       </c>
       <c r="M331" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>82</v>
@@ -14030,15 +14024,15 @@
         <v/>
       </c>
       <c r="M332" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>82</v>
@@ -14073,15 +14067,15 @@
         <v>IIb</v>
       </c>
       <c r="M333" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>82</v>
@@ -14116,15 +14110,15 @@
         <v>IIb</v>
       </c>
       <c r="M334" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>82</v>
@@ -14148,7 +14142,7 @@
         <v>9</v>
       </c>
       <c r="J335" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K335" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -14159,15 +14153,15 @@
         <v>III</v>
       </c>
       <c r="M335" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>82</v>
@@ -14191,7 +14185,7 @@
         <v>9</v>
       </c>
       <c r="J336" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K336" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -14202,15 +14196,15 @@
         <v>III</v>
       </c>
       <c r="M336" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>82</v>
@@ -14234,7 +14228,7 @@
         <v>9</v>
       </c>
       <c r="J337" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K337" t="str">
         <f>IF(Tabel1[[#This Row],[Source]]="Clinical insight","Expert opinion",)</f>
@@ -14245,15 +14239,15 @@
         <v>III</v>
       </c>
       <c r="M337" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>81</v>
@@ -14272,22 +14266,22 @@
         <v>Calculated from tx effect</v>
       </c>
       <c r="K338" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L338" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M338" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>81</v>
@@ -14311,25 +14305,25 @@
         <v>9</v>
       </c>
       <c r="J339" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K339" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L339" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIa</v>
       </c>
       <c r="M339" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>81</v>
@@ -14353,25 +14347,25 @@
         <v>22</v>
       </c>
       <c r="J340" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K340" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L340" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M340" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>81</v>
@@ -14398,22 +14392,22 @@
         <v>101</v>
       </c>
       <c r="K341" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L341" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M341" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>81</v>
@@ -14440,22 +14434,22 @@
         <v>101</v>
       </c>
       <c r="K342" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L342" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>IIb</v>
       </c>
       <c r="M342" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>81</v>
@@ -14479,25 +14473,25 @@
         <v>9</v>
       </c>
       <c r="J343" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K343" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L343" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M343" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>81</v>
@@ -14515,15 +14509,15 @@
         <v/>
       </c>
       <c r="M344" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>81</v>
@@ -14547,17 +14541,17 @@
         <v>9</v>
       </c>
       <c r="J345" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K345" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L345" t="str">
         <f>IF(Tabel1[[#This Row],[Evidence_type]]="RCT","I",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Observational, prospective",Tabel1[[#This Row],[Evidence_type]]="Before-after study"),"IIa",IF(OR(Tabel1[[#This Row],[Evidence_type]]="Expert panel (WHO)",Tabel1[[#This Row],[Evidence_type]]="Expert panel",Tabel1[[#This Row],[Evidence_type]]="National registry",Tabel1[[#This Row],[Evidence_type]]="Observational, retrospective"),"IIb", IF(Tabel1[[#This Row],[Evidence_type]]="","","III"))))</f>
         <v>III</v>
       </c>
       <c r="M345" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">

--- a/Data/Model parameters.xlsx
+++ b/Data/Model parameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Utilitarian-distribution-of-OR-capacity-during-COVID-19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F641F66-025B-AF4E-9753-8EAC3232A25F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC606FF-D6DB-2348-8160-7057A36F744A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameter names" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="250">
   <si>
     <t>Tx_eff</t>
   </si>
@@ -745,13 +746,43 @@
   </si>
   <si>
     <t>Patients with mild laryngeal cancer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition </t>
+  </si>
+  <si>
+    <t>Average of of the patient population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality of life of the patients before the surgery </t>
+  </si>
+  <si>
+    <t>The quality of life of the patients after the surgery</t>
+  </si>
+  <si>
+    <t>The expected survival of the patients before the surgery</t>
+  </si>
+  <si>
+    <t>The expected survival of the patients after the surgery</t>
+  </si>
+  <si>
+    <t>The time until no effect on the survival is expected anymore by the surgery</t>
+  </si>
+  <si>
+    <t>The treatment effect of the surgery</t>
+  </si>
+  <si>
+    <t>The time until no effect on the quality of life is expeceted by surgery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +822,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -811,11 +850,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -824,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -854,6 +902,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -1170,11 +1220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22286,4 +22336,94 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C74CB41-3A12-2141-8820-AE0993798E54}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Model parameters.xlsx
+++ b/Data/Model parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Utilitarian-distribution-of-OR-capacity-during-COVID-19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC606FF-D6DB-2348-8160-7057A36F744A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4D850-6719-0C4F-9D08-2106E9C31F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="0" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:M1448"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D9" sqref="D2:D9"/>
@@ -22343,7 +22343,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
